--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Igf1r</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Igf1r</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,14 +525,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2">
         <v>3</v>
       </c>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H2">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I2">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J2">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N2">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P2">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q2">
-        <v>5.215454027220001</v>
+        <v>12.53486368112567</v>
       </c>
       <c r="R2">
-        <v>46.93908624498</v>
+        <v>112.813773130131</v>
       </c>
       <c r="S2">
-        <v>0.1365447384300221</v>
+        <v>0.3026602892175075</v>
       </c>
       <c r="T2">
-        <v>0.1365447384300221</v>
+        <v>0.3026602892175074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H3">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I3">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J3">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P3">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q3">
-        <v>5.229333869854</v>
+        <v>13.22153189812567</v>
       </c>
       <c r="R3">
-        <v>47.064004828686</v>
+        <v>118.993787083131</v>
       </c>
       <c r="S3">
-        <v>0.1369081237598549</v>
+        <v>0.3192402223097696</v>
       </c>
       <c r="T3">
-        <v>0.1369081237598549</v>
+        <v>0.3192402223097696</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H4">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I4">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J4">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N4">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O4">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P4">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q4">
-        <v>1.488827028254</v>
+        <v>3.393765505350667</v>
       </c>
       <c r="R4">
-        <v>13.399443254286</v>
+        <v>30.543889548156</v>
       </c>
       <c r="S4">
-        <v>0.03897867684759371</v>
+        <v>0.08194409412943783</v>
       </c>
       <c r="T4">
-        <v>0.03897867684759369</v>
+        <v>0.08194409412943782</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H5">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I5">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J5">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N5">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O5">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P5">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q5">
-        <v>2.566572735204</v>
+        <v>8.576688386960667</v>
       </c>
       <c r="R5">
-        <v>23.099154616836</v>
+        <v>77.190195482646</v>
       </c>
       <c r="S5">
-        <v>0.06719491744362253</v>
+        <v>0.2070882503201535</v>
       </c>
       <c r="T5">
-        <v>0.06719491744362251</v>
+        <v>0.2070882503201535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.419766</v>
+        <v>1.061311</v>
       </c>
       <c r="H6">
-        <v>1.259298</v>
+        <v>3.183933</v>
       </c>
       <c r="I6">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667835</v>
       </c>
       <c r="J6">
-        <v>0.410413095956253</v>
+        <v>0.9838301151667834</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N6">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O6">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P6">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q6">
-        <v>1.175924496846</v>
+        <v>3.019085222695334</v>
       </c>
       <c r="R6">
-        <v>10.583320471614</v>
+        <v>27.171767004258</v>
       </c>
       <c r="S6">
-        <v>0.0307866394751598</v>
+        <v>0.07289725918991521</v>
       </c>
       <c r="T6">
-        <v>0.03078663947515978</v>
+        <v>0.07289725918991521</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H7">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I7">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J7">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.42467</v>
+        <v>11.81073566666667</v>
       </c>
       <c r="N7">
-        <v>37.27401</v>
+        <v>35.432207</v>
       </c>
       <c r="O7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="P7">
-        <v>0.3327007343951245</v>
+        <v>0.3076347070004043</v>
       </c>
       <c r="Q7">
-        <v>0.1345923085533333</v>
+        <v>0.2060185991455556</v>
       </c>
       <c r="R7">
-        <v>1.21133077698</v>
+        <v>1.85416739231</v>
       </c>
       <c r="S7">
-        <v>0.003523733786203788</v>
+        <v>0.004974417782896865</v>
       </c>
       <c r="T7">
-        <v>0.003523733786203787</v>
+        <v>0.004974417782896865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H8">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I8">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J8">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="P8">
-        <v>0.3335861479782027</v>
+        <v>0.3244871420261927</v>
       </c>
       <c r="Q8">
-        <v>0.1349504978984444</v>
+        <v>0.2173044358122222</v>
       </c>
       <c r="R8">
-        <v>1.214554481086</v>
+        <v>1.95573992231</v>
       </c>
       <c r="S8">
-        <v>0.003533111468411579</v>
+        <v>0.005246919716423128</v>
       </c>
       <c r="T8">
-        <v>0.003533111468411578</v>
+        <v>0.005246919716423128</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H9">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I9">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J9">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.546802333333333</v>
+        <v>3.197710666666667</v>
       </c>
       <c r="N9">
-        <v>10.640407</v>
+        <v>9.593132000000001</v>
       </c>
       <c r="O9">
-        <v>0.09497425211730705</v>
+        <v>0.08329089836363292</v>
       </c>
       <c r="P9">
-        <v>0.09497425211730702</v>
+        <v>0.0832908983636329</v>
       </c>
       <c r="Q9">
-        <v>0.03842132740955555</v>
+        <v>0.05577873306222223</v>
       </c>
       <c r="R9">
-        <v>0.345791946686</v>
+        <v>0.50200859756</v>
       </c>
       <c r="S9">
-        <v>0.001005900938612703</v>
+        <v>0.001346804234195092</v>
       </c>
       <c r="T9">
-        <v>0.001005900938612703</v>
+        <v>0.001346804234195092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H10">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I10">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J10">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.114294</v>
+        <v>8.081220666666667</v>
       </c>
       <c r="N10">
-        <v>18.342882</v>
+        <v>24.243662</v>
       </c>
       <c r="O10">
-        <v>0.1637250811577051</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="P10">
-        <v>0.163725081157705</v>
+        <v>0.2104918797744333</v>
       </c>
       <c r="Q10">
-        <v>0.06623410880399999</v>
+        <v>0.1409634258288889</v>
       </c>
       <c r="R10">
-        <v>0.596106979236</v>
+        <v>1.26867083246</v>
       </c>
       <c r="S10">
-        <v>0.001734061697138282</v>
+        <v>0.003403629454279859</v>
       </c>
       <c r="T10">
-        <v>0.001734061697138282</v>
+        <v>0.003403629454279859</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.01083266666666667</v>
+        <v>0.01744333333333333</v>
       </c>
       <c r="H11">
-        <v>0.032498</v>
+        <v>0.05233</v>
       </c>
       <c r="I11">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="J11">
-        <v>0.01059130149685484</v>
+        <v>0.01616988483321658</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.801381</v>
+        <v>2.844675333333333</v>
       </c>
       <c r="N11">
-        <v>8.404142999999999</v>
+        <v>8.534026000000001</v>
       </c>
       <c r="O11">
-        <v>0.07501378435166071</v>
+        <v>0.07409537283533685</v>
       </c>
       <c r="P11">
-        <v>0.07501378435166069</v>
+        <v>0.07409537283533686</v>
       </c>
       <c r="Q11">
-        <v>0.03034642657933333</v>
+        <v>0.04962062006444445</v>
       </c>
       <c r="R11">
-        <v>0.273117839214</v>
+        <v>0.44658558058</v>
       </c>
       <c r="S11">
-        <v>0.0007944936064884904</v>
+        <v>0.001198113645421641</v>
       </c>
       <c r="T11">
-        <v>0.0007944936064884901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.776571</v>
-      </c>
-      <c r="I12">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J12">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>12.42467</v>
-      </c>
-      <c r="N12">
-        <v>37.27401</v>
-      </c>
-      <c r="O12">
-        <v>0.3327007343951245</v>
-      </c>
-      <c r="P12">
-        <v>0.3327007343951245</v>
-      </c>
-      <c r="Q12">
-        <v>7.357769468856667</v>
-      </c>
-      <c r="R12">
-        <v>66.21992521971001</v>
-      </c>
-      <c r="S12">
-        <v>0.1926322621788987</v>
-      </c>
-      <c r="T12">
-        <v>0.1926322621788986</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.776571</v>
-      </c>
-      <c r="I13">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J13">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.45773566666667</v>
-      </c>
-      <c r="N13">
-        <v>37.373207</v>
-      </c>
-      <c r="O13">
-        <v>0.3335861479782027</v>
-      </c>
-      <c r="P13">
-        <v>0.3335861479782027</v>
-      </c>
-      <c r="Q13">
-        <v>7.377350637021888</v>
-      </c>
-      <c r="R13">
-        <v>66.39615573319699</v>
-      </c>
-      <c r="S13">
-        <v>0.1931449127499362</v>
-      </c>
-      <c r="T13">
-        <v>0.1931449127499362</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H14">
-        <v>1.776571</v>
-      </c>
-      <c r="I14">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J14">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.546802333333333</v>
-      </c>
-      <c r="N14">
-        <v>10.640407</v>
-      </c>
-      <c r="O14">
-        <v>0.09497425211730705</v>
-      </c>
-      <c r="P14">
-        <v>0.09497425211730702</v>
-      </c>
-      <c r="Q14">
-        <v>2.100382056044111</v>
-      </c>
-      <c r="R14">
-        <v>18.903438504397</v>
-      </c>
-      <c r="S14">
-        <v>0.05498967433110065</v>
-      </c>
-      <c r="T14">
-        <v>0.05498967433110063</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H15">
-        <v>1.776571</v>
-      </c>
-      <c r="I15">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J15">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.114294</v>
-      </c>
-      <c r="N15">
-        <v>18.342882</v>
-      </c>
-      <c r="O15">
-        <v>0.1637250811577051</v>
-      </c>
-      <c r="P15">
-        <v>0.163725081157705</v>
-      </c>
-      <c r="Q15">
-        <v>3.620825801958</v>
-      </c>
-      <c r="R15">
-        <v>32.58743221762199</v>
-      </c>
-      <c r="S15">
-        <v>0.09479610201694429</v>
-      </c>
-      <c r="T15">
-        <v>0.09479610201694426</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.5921903333333333</v>
-      </c>
-      <c r="H16">
-        <v>1.776571</v>
-      </c>
-      <c r="I16">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="J16">
-        <v>0.5789956025468922</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>2.801381</v>
-      </c>
-      <c r="N16">
-        <v>8.404142999999999</v>
-      </c>
-      <c r="O16">
-        <v>0.07501378435166071</v>
-      </c>
-      <c r="P16">
-        <v>0.07501378435166069</v>
-      </c>
-      <c r="Q16">
-        <v>1.658950748183666</v>
-      </c>
-      <c r="R16">
-        <v>14.930556733653</v>
-      </c>
-      <c r="S16">
-        <v>0.04343265127001243</v>
-      </c>
-      <c r="T16">
-        <v>0.04343265127001241</v>
+        <v>0.001198113645421642</v>
       </c>
     </row>
   </sheetData>
